--- a/linear system/note.xlsx
+++ b/linear system/note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\linear system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C693A54-F360-4ACE-AA41-8620C6726ECD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1343A44-53C5-4D5B-8920-6697E72C3E4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5390" yWindow="1680" windowWidth="13620" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>https://tw.answers.yahoo.com/question/index?qid=20120411000015KK08659</t>
   </si>
@@ -33,12 +33,194 @@
     <t>逆A為任意的意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>If B is an m x n matrix such that B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then B = A.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theorem 1.3  (Properties of Matrix-Vector Products)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let A and B be m x n matrices, and let </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be vectors in R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Then</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for (e) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +241,34 @@
       <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,10 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -115,8 +328,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="120546" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -158,6 +371,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -178,7 +392,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文字方塊 2">
@@ -500,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -511,20 +725,55 @@
     <col min="2" max="2" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>43863</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/linear system/note.xlsx
+++ b/linear system/note.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\linear system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1343A44-53C5-4D5B-8920-6697E72C3E4D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99947F25-BF80-4D7E-9D7C-E66DFD592137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5390" yWindow="1680" windowWidth="13620" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>https://tw.answers.yahoo.com/question/index?qid=20120411000015KK08659</t>
   </si>
@@ -38,173 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>If B is an m x n matrix such that B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for all </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, then B = A.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Theorem 1.3  (Properties of Matrix-Vector Products)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Let A and B be m x n matrices, and let </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> be vectors in R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Then</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,7 +52,633 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">for (e) </t>
+    <r>
+      <t xml:space="preserve">for (e): If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, then (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> ≠ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">, i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">, for some j </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be m x n matrices, and let </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be vectors in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Then</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反證法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an m x n matrix such that </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +737,61 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,13 +814,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -448,6 +984,726 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="左中括弧 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1915792-1E72-4CA2-BCE9-E4E63FDA2281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="2362200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右中括弧 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECA3352-13E3-4ECE-BE36-E1A5E1418399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975100" y="2355850"/>
+          <a:ext cx="82550" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左中括弧 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F97C1C4-20ED-42DB-8C65-F71955206CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="2362200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右中括弧 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F71C5BB-F38C-45BD-B6EE-F0B5DE916E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="2368550"/>
+          <a:ext cx="82550" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="等於 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D181EFAF-6D65-46BD-8FF4-2FD58A1C7715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4826000" y="2387600"/>
+          <a:ext cx="323850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathEqual">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左中括弧 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15031E63-3E26-4C32-94B6-95F8185D7795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="2362200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右中括弧 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41598E5-ED36-4B96-874C-5DA328D11822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3975100" y="2355850"/>
+          <a:ext cx="82550" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左中括弧 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA24944-FECC-45B2-A946-0227908479DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4184650" y="2362200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右中括弧 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2207D2A4-5D4C-44C6-BACC-98070E302C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6769100" y="2355850"/>
+          <a:ext cx="82550" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="等於 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45E8502-2419-4FA8-8CC9-2831F64E4F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="2381250"/>
+          <a:ext cx="323850" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathEqual">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左中括弧 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A753DC9-7CA4-4C4F-B31A-F5A894FE2D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4184650" y="2362200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="右中括弧 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8518932B-0E93-4B74-A157-252A21756344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="2368550"/>
+          <a:ext cx="82550" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -714,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -725,55 +1981,119 @@
     <col min="2" max="2" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>43863</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43864</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
       <c r="D9" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/linear system/note.xlsx
+++ b/linear system/note.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\linear system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99947F25-BF80-4D7E-9D7C-E66DFD592137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F046EF9-C63A-4955-873A-4A6274E2837A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="講義" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>https://tw.answers.yahoo.com/question/index?qid=20120411000015KK08659</t>
   </si>
@@ -680,6 +680,9 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kjmrIIcVswk&amp;t=305s</t>
   </si>
 </sst>
 </file>
@@ -1704,6 +1707,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>138119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1AB9B0-0908-4E47-ACBB-19C9330EBB06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="25101" r="3114"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="3232150"/>
+          <a:ext cx="4248150" cy="2716219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1970,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2095,13 +2141,24 @@
       </c>
       <c r="O14" s="8"/>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43864</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{1DE18DFA-8289-4972-8D51-DD20AD8BB52F}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{9A03C880-1D1B-45F9-841F-1F04F753C996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/linear system/note.xlsx
+++ b/linear system/note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\linear system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F046EF9-C63A-4955-873A-4A6274E2837A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9832E-A90A-4D2F-8EB2-2EACC0DC5B93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>https://tw.answers.yahoo.com/question/index?qid=20120411000015KK08659</t>
   </si>
@@ -684,12 +684,16 @@
   <si>
     <t>https://www.youtube.com/watch?v=kjmrIIcVswk&amp;t=305s</t>
   </si>
+  <si>
+    <t>線性代數 2-1 單元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +799,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -817,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -839,6 +850,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1748,6 +1760,662 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7264F1C-D1CF-4080-80BC-DC3343FBFBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="14239" t="18148" r="15279" b="15488"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="6546850"/>
+          <a:ext cx="6883400" cy="3854450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形: 圓角 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57ACEBF-4F0A-4992-8447-4475BB474A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3308350" y="7366000"/>
+          <a:ext cx="266700" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形: 圓角 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732BBC91-0731-45A0-A3F8-719E3CAB36A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3898900" y="7035800"/>
+          <a:ext cx="266700" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形: 圓角 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6B089-E641-49A5-A6FF-C706D39BE966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298950" y="8870950"/>
+          <a:ext cx="234950" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形: 圓角 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A928997A-FE7E-4C29-9E6D-CDB70A21869C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="8648700"/>
+          <a:ext cx="546100" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線接點 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8CF721-799F-4F30-8EB7-1A3566F17DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3575050" y="7283450"/>
+          <a:ext cx="457200" cy="168275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線接點 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E189F5-1445-4871-BEBD-94DC3D080D5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3911600" y="7283450"/>
+          <a:ext cx="120650" cy="1365250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="圖片 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D2B5B9-7F50-4A7F-971D-AAF45202A371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="14098" t="17974" r="15492" b="15601"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="10598150"/>
+          <a:ext cx="6926580" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121043</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形: 圓角 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0CA933-2B44-4992-AD57-C43E81BF5224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702050" y="11188700"/>
+          <a:ext cx="381393" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形: 圓角 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC0C85A-D39A-488F-ABED-1CD485EF7A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="11131550"/>
+          <a:ext cx="520700" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121043</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線接點 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B0AAD7-BDC0-4E86-B43E-BA78C779C0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="1"/>
+          <a:endCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4083443" y="11395075"/>
+          <a:ext cx="374257" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2018,12 +2686,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2146,9 +2815,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>43864</v>
+        <v>43880</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
